--- a/Money.xlsx
+++ b/Money.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salimlias\Desktop\Work\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7284260-6B21-4C05-A695-F1CB8C6D9563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D7A1FD-DAD3-4115-950C-BBE6EDBDD7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Aziz </t>
   </si>
@@ -60,16 +60,46 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Free Money</t>
+  </si>
+  <si>
+    <t>Telephone Home Credit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,9 +418,13 @@
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +443,17 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1800</v>
       </c>
@@ -432,8 +475,16 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2">
+        <f>C2-D2</f>
+        <v>900</v>
+      </c>
+      <c r="H2">
+        <f>650 + 500</f>
+        <v>1150</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -445,11 +496,207 @@
         <v>4074</v>
       </c>
       <c r="D3">
-        <f>E2+1650</f>
+        <f>1650</f>
+        <v>1650</v>
+      </c>
+      <c r="E3">
+        <f>E2+D3</f>
         <v>3900</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">C3-D3</f>
+        <v>2424</v>
+      </c>
+      <c r="H3">
+        <f>200+650+500</f>
+        <v>1350</v>
+      </c>
+      <c r="I3">
+        <f>G3-H3</f>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4">
+        <v>2050</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C8" si="1">A4+B4</f>
+        <v>4074</v>
+      </c>
+      <c r="D4">
+        <f>1650</f>
+        <v>1650</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="2">E3+D4</f>
+        <v>5550</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2424</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H8" si="3">200+650+500</f>
+        <v>1350</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I8" si="4">G4-H4</f>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5">
+        <v>2050</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>4074</v>
+      </c>
+      <c r="D5">
+        <f>1650</f>
+        <v>1650</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2424</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>2024+5000</f>
+        <v>7024</v>
+      </c>
+      <c r="B6">
+        <v>2050</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>9074</v>
+      </c>
+      <c r="D6">
+        <f>1650+5000</f>
+        <v>6650</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>13850</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2424</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7">
+        <v>2050</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>4074</v>
+      </c>
+      <c r="D7">
+        <f>1650</f>
+        <v>1650</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>15500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2424</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8">
+        <v>2050</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>4074</v>
+      </c>
+      <c r="D8">
+        <f>1650</f>
+        <v>1650</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>17150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2424</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>